--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/21_Bursa_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/21_Bursa_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB1EAA5-9DDB-49E9-934E-84AC70967C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECBA885-8083-4A60-BA9E-8E57A47A96A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="664" xr2:uid="{22DCB651-2DC1-453C-9FD9-7CF45D4606B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{95FB8665-1E4F-4D0C-BCF1-27FEE70F109D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="116" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B4D6BDBB-8C93-4D3F-A1B9-F403872A0582}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4528D9E8-63F1-4266-BA4D-C6CFDBCE6224}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{ACCFFBF6-E9EB-496B-9C78-D5FE58271891}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{791B3EAC-2E68-46F6-A833-56F720775899}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A7BE11A0-C02F-4800-8ED5-1E8F85C8D9DD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{440F2F2F-F422-4258-BA21-D329CF492470}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35DD7E07-FE26-4890-A60E-3A221BEF28C0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FC462957-9D00-4305-A2F4-0989DD3986A6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AC2BBC7B-8BD9-4AFA-9B40-02A6FCA0B250}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5AA77092-38F2-478B-A548-3CE9603BF99E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A1AEAA17-224D-4EF6-B781-7C581A7A14A2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DFCF894A-9E30-472D-A79B-0EE7B12008DE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5E004A06-0396-4046-95B2-4D775A002092}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8A286E92-4109-49AF-9ED5-500D0D61C229}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4DD1B5-7FA7-44B7-87B8-420F75F83EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB57AA4-5578-4F1E-B567-CD08D246C99E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2658,17 +2658,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6743932-98E4-4254-8D69-91077A0CECA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E706261-ADA6-411A-8FD8-4A3DA4909CF7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D346E565-6377-4C5C-803F-CD12196B2F01}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF82A486-FAF9-45DA-A4EC-61A1088DBA06}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0133304E-5EDF-4A92-AEBE-2299C7B54468}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F55E503F-EFDE-48EE-A1EB-33AE88A51FBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE669322-0B5E-4A82-ADA7-C236317751EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B2790A4-AEBF-4546-BB83-818A7E819901}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C7B2D969-EB1D-4B13-B659-422F33D285D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{36514AF2-0AE9-43C7-B6D1-293BAED9054B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{733604C8-D0A1-460E-AF4E-3AF181ED6C9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE049511-1240-41B3-AECD-F8E34DC48F78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4E38923-6FA8-4266-AF3B-A1BB5C930CAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3D3928B-7F2F-41DB-A412-E34C6B24FE0A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE85D56B-211E-4466-A681-2F8D6D18A4E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64CAAF10-3CFD-4DEF-A583-A0BE9CFB3D52}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6924373-F663-4307-831A-6DA10E0D7989}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3932752D-403B-47C3-ABE1-5914FE958C64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A859D442-AC4B-4901-83C0-15F92AC37506}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{74558371-3DD0-4AC0-B21D-7FCEF98588CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CFB2D88C-EEE1-4840-9277-4B8B6E0DC38C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E64DFC4-130A-49AE-9C03-F5C83EEA8CF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2681,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D02ABE3-2250-4756-80A7-8248F23DC397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231A6A9-AF3D-4A09-BC1C-0107D20612B2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3985,17 +3985,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01222612-83A6-43D7-B004-1D2CB119E153}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0640ACDB-B4CB-42B7-B9AC-5B63854D1920}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49CF9B9D-2721-4612-9BA9-844574E60593}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C40E8C2-7864-4F20-B074-5E249F1E33A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62A0C113-59D4-4013-A25A-DA3E917E4F85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91B4569C-7CBD-4671-82A7-7B626AFE8B15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{332241D9-345E-4F63-B536-7CA29EA5E1F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CE9AC3F-1A2F-479D-ABE0-BE49CE69E998}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87C5DD06-07F4-42FC-B103-52DDE083FAA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C1C96A15-D21A-474F-83A9-50C9ABEE958B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{895D3DBC-65B4-4875-86C6-9F2FFB519D44}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CB41CB2-DA61-4D75-8038-723D2F7EB236}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4605839-BC86-4A48-B5E2-30B284B07110}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F22F75E-EB6D-4E18-978F-A8BA6FBF0D32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A15E61CC-AB29-4F00-830F-5D43D209E898}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{552527E7-83D4-47D9-AB23-4118E3F6C823}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BFC93B1-48D7-4540-B3B8-1FD977BAA511}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3924F864-0543-4BA3-97DE-4E800EDF09B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D0699F5-00D6-4B1E-A19E-93E8E60C97C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB49F398-F991-4CDF-9755-5AC883CF3B29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4137B289-44E8-4785-AAF5-3E2DD52A59A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7583BCF-4F04-4D3E-B2C9-80DCF1DC2CC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4008,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B84A43-6F3F-4573-B616-C71E6045099A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F5E8D-7A6B-4EA2-BF82-79529D970C5C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5312,17 +5312,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08AA43C0-0A3D-4F78-8950-6ABE2757AA7F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BE56BAC-452D-4B62-8D85-9A1AF90A4669}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCD774CC-AEBB-43F0-8483-9B2D39B09440}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5E4E2D2-D85C-408B-B605-0B17AC320A9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{475AA386-6B09-4DB0-8D4B-0A975582D872}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73A4A1D9-41D7-47BA-A5A6-6717FDB80BA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A924C5A-7C0B-418A-9681-8CE830B0BE58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91A2391F-E1F6-4245-A344-0BD051061D0C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{234EEC22-9D0F-453C-89E2-E66033EFFBB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{874A0E7F-D0CB-42FC-BD27-8EF014FE0B6A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E9AD9CF-92D5-4AD0-A184-9EF4D86F049F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7464CECB-A52E-493B-AF3C-D3E9CDD9E9A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F24BB981-794A-48B6-BFCA-E0978C9DA88E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAB32158-FDBE-42E5-9AFE-0BD1C7ABFE67}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2736C181-4938-405E-BC6C-9BE6307748CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABD8EF10-BCD6-41CC-A3EC-7228882A4BDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B01B3C2-1C57-4768-85C2-DD4CA0E5E7E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD4B4665-9204-459E-8002-F347EC2F69CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{868DC25E-FA8D-4782-A80D-E26A92CC589A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EEDB2C51-9419-4BB0-BAC3-2BA404422141}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{026C8935-7568-469A-9D0E-7DE6975ECCD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8C0B7F8-9372-4669-964D-0FBC3C86E809}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5335,7 +5335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35654A1-09D9-4376-A3D4-156BDF650993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94276C0E-C8D1-4A3F-B6F2-9E4352F4FE02}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6639,17 +6639,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9573CA18-997F-4EA1-8378-901C7EB636D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB012754-9AC8-4F58-B32A-D7668DB2CA7B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{844CD7F7-BABC-4F2C-B8C9-5F6560D375F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{312E40EB-7A0A-4F07-BDD6-BB9CD4AC05DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57B9C3CB-2D76-4617-86AF-BFE7182A5D24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72CA1D73-5EF9-481E-A0D0-0964CE032C70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A99C1052-38B3-4C5D-9D80-B5788E3EDF94}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88B6542C-4F0B-4B6B-858A-1866FA80C284}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F989731C-9C76-452B-B570-479FE02D7041}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{834CDCA6-A949-4D5B-80FA-B80DC04FFD5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CD257C9-CE66-4796-A5A5-DC69067DC97D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64DB18C0-4609-4383-A7EB-216106CBF6A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE6E91E0-FA83-4E28-998E-53282093CA3D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31337A5C-A466-45B8-9361-83614B31CF31}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{615A93C4-897D-4B5E-A727-E94CA7506C1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A27D6CA0-081A-430E-AAF9-256625E3E26C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F971FFE-A8B7-482E-A499-B2F04AF7B087}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{811401DA-0D03-43C8-96CD-249F97BB4614}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{603CB204-27E5-4614-8162-7A68A45C7054}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{740F6C74-0F2E-4A64-AFC0-8656FCACECE9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D8976324-D0CB-433A-BA10-88B3C7579CA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD178DA9-F37A-44CA-A23B-BFF50E658EC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6662,7 +6662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C36B7D-63AB-4902-8756-569C686E99E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AF042E-DF91-4D75-98C5-1D2E0C5B3A3D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7965,17 +7965,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F56984E9-6D24-4B23-88E2-A30C4AD5A87D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFE7C071-1F30-4CC3-8DCE-D3433E5A75B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CAAE214-394D-4E2C-B2A2-5CC0587DDE8E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C464AFD2-9060-4A70-9BE4-1BDFFA6F46F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07831DDB-9910-4867-809A-6F98E63303C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20042C27-6645-4992-BC23-AB699A6ED579}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA09CA21-0F47-4166-B834-E4C1BD258381}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{251BB27A-D9DF-4FE6-9BCE-DDC0F402DB7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0655B25-B2C6-4E99-8FF1-1B0C2EC0616D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A626F71A-1373-424F-8931-9D4E76D03BAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1BF7B21-A5D2-496A-823C-20EBCB1F9982}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{971E6E8D-AC89-49E7-A519-7CE19BDA1BEE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{996C0FC9-0577-4E4A-890D-9967788121BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EAB13C69-7974-475C-AF49-7DBE719A806C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{344FE1DE-8A55-420C-B832-E89C58381D5D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53D47594-FEAC-47C4-8A9D-07702E71D923}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1B833D3-4F6E-469C-BAFA-65AB172BD493}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9283AFC1-D76D-466F-9B04-E79906C114ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF5805D2-9F8B-4744-9380-1B2BE33B6672}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1A4E75FA-95DF-46BE-A1AF-8F6A0AE8DC2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{835A8C31-67E2-4C9A-8267-19DE0C3B9E19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C94932A6-EF54-4BA2-BED6-4ADC31F5E7C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7988,7 +7988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A8B87C-7186-4317-9C5A-4F86DE9FC4A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895366E-9F0A-4186-A4CD-A5D18F5C8973}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9291,17 +9291,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B89040F-069A-47AA-800E-E9CB1A5A0876}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{452FF67B-7140-483D-A4EB-95CC6EE0157D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A532EA3-1133-4AF7-A384-58E9043FAF0A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27734C4C-EBBD-4C46-8F30-20C9CAC62A1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B8156BB-89B4-43EC-AEFA-4849343D8E54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CAE1883-34DF-43B8-B5E0-0CAA968C89E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82BD2869-F8C3-4612-9A8C-9E3E2AA257FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52C35A19-E39C-4435-8330-2422D32172C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D2F2206-3A3B-4C96-84DC-A2D1EC6F93F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2993665-D3EA-44A8-87AF-84BD409AD194}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF2DA193-03F0-4B17-9783-2A5D8218046B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6F37CF8-2743-4817-99A4-6611C6A0613A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FDDC420-438E-48D9-9305-B682B5FFA8C1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DADD8740-B04D-4AE7-BADB-9A757195A1AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AACCA4B-10BB-4F8C-91A0-37CE7F46F8D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D4AE8A0-B871-42F1-8CEB-EF8A32F9F114}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70DBEEED-7137-46B5-A8E6-49858CCFD79C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61742A06-1687-4FD7-BEAE-FDC2A01F2630}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A31B305F-D035-4EC0-87AC-C0DD3F3DB678}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{073BA33A-2DBD-4910-955B-42927BCEBCCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{542B3765-FE5C-404E-8A85-8ABC038B7EBD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{943F367B-D6B6-4E59-895A-267D87200BE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9314,7 +9314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3A6854-366B-4A17-AB50-407BE8E56A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23583AE8-4E47-4125-A4AC-F77AE13BD374}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10617,17 +10617,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63C41DA4-61B3-4981-A462-9A4B144F576D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64CBFA34-E673-4281-9FD9-E9B4C565178A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23293E8A-0AC5-413D-8D5B-E4E5FA1E4A49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BAA1ADD-3A3C-427C-8FB5-3BAB6C49D66C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FA8A202-BFF6-4CBE-A559-602C8C72D86C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B0D4C69-5F7C-406B-83F7-7BE2E30D601C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E1577B0-8E0E-406B-8B52-78C4D9C9C324}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E98E2302-340C-4870-BAD4-0FB6A81C00E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{45E2C8CA-3D64-4666-AB0E-32C2FD39B65D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{16537AD5-6AB2-43E4-B989-E9A68C74643D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{141D4984-5315-4080-9CCE-C8547F687086}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1520200C-7F0D-4D8A-9931-35B7AD31F0B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BCCF064-4A20-4303-865F-3D7969E7E215}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A29E40B7-88FE-4F7A-8285-B321EC00CA92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0281F77F-620B-4B16-B17C-7079B555AD2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5424897F-92DB-46CC-8524-D00274EF6FDE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C11CA96B-6E7D-4C63-8714-61663FF8031B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D102E33E-BFF7-48F8-9B56-54951F501EAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC4A3CF5-D5C8-4667-B11A-C1E9EEC090BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7FAA52CF-11F9-4E6F-98E0-B7E185D63BE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADFA617A-E65C-404D-B874-7CC49565C755}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDD6C452-650F-40CA-B180-D1EAE109C560}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10640,7 +10640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5649D7AD-747D-4AA2-BBF5-934B39FE80B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD341B9A-CBDD-4AC2-B475-514B1BB16FFA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11943,17 +11943,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E9874F7-7B9F-487B-8AE3-829986C03586}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{365388A2-5224-43CF-9A39-2B655E8A6C52}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86B0F4DB-4BCC-4427-B31B-5DF56A6269A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB75F298-F420-4554-AC0E-A55D5CF64BF7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20861451-3B32-446A-9046-0D6B7EC65394}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9C377D6-AF81-44BD-9048-BA7AB8ECDBCB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB942A1D-C23A-4CB9-AB1F-99CEE93484AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7A4AD62-FE63-41BD-87C5-70A9ED5FC284}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DB3207E7-C902-481D-9170-0F3EE8B637B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27A933A6-A951-4930-A991-46151D62DB3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82E50D5A-A496-44FA-91F8-2A09826A8F01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B21DC31-0652-42F6-A90C-B48FC08AE047}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33638FAB-6BE1-4A63-98D0-68A4E080276C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03F0541A-A2A8-4462-8225-03C93B62344A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA7742C8-BF29-4619-9CC8-56B63ABF35C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{667475A9-FE8D-4799-8878-50EF0CC04D0C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BD6CBA0-567F-49D9-8961-73065DCDB8F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE950A24-960B-46FD-A2A2-6619E24AE5B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B9CA21F-6EF1-45DB-A375-59709C0441F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{41C165F1-F1C6-4F1A-BB01-7F164ADB777C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AE189CE1-7F0B-4073-98C4-082EF7E314BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04E7430B-7629-4EA4-8EB5-C2653A196AE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11966,7 +11966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FFAA8-97E2-4667-90B7-93BD16BC4AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC8038E-6ACE-483B-A8C1-F969E914763E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13269,17 +13269,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC819E81-D17B-4DA2-A396-7991AD6DF159}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EFC1DBA-625D-4723-8674-3EC25EEFCB15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0525353-D8DC-4B4E-95D4-BAD7DD3990FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1595ACD-AC3D-476A-8DBA-7E6BADFEE5C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE7B54F6-57BA-4F0A-B0D0-676A2966D01C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3F95DED-BF80-4ADF-AB55-FD69FEDE5E28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A1B2703-A940-4F3E-9ECB-182E9B2EA18B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94C97159-DA53-4BB9-8484-39B1E000F886}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1BA47761-5D7E-43A3-A0C2-D1D22BD71D95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9645CFFB-6932-4821-BD31-EE31E179DAE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A20EABA3-C232-4740-B1E7-C95455D89051}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{515CEDF3-5803-4CC3-9A78-F247AFDCC15A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C9465B5-0952-4DC2-A71A-5918CB7D3FCB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B0D8D87-BEC7-4078-992D-48B25E86D1CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25157090-8A7A-4486-96BB-B1E904452FB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D1F11B6-DA16-4644-82D8-2AAAD571206F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2072504B-22F3-4BED-B9D9-CCC116CCB79B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8C7B244-91D0-4348-A846-16A4E81369CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1014B44D-790A-4AE3-90B1-44C11F7536F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ADDAD9C4-1AD8-41A7-9198-B67050959DCD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{86739CB9-DE4E-4460-857C-A5B6A49B8062}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FE97948-1A4F-4498-8E22-EBB837AA5C93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13292,7 +13292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049887A-1198-4B9F-9298-DA92DF847951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1C030-E18C-4970-971F-05ED76489E60}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14595,17 +14595,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FBBD369-1323-4915-BE9B-4285FCAA9F99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE7D6CFD-E2CB-4C54-A104-7F366C494614}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CDC39D5-CCF5-4C30-9286-5ABB12FFA8A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B657AB11-4635-44BF-86EF-F25FDF4FAC29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C57452D5-AFEB-435F-B825-90ED1A3A66DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C1B7879-8C86-4EAF-A556-376545AECD0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAD67FD7-ED76-41B1-A58F-EF50301CCC26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4173BECF-1E44-45DE-809B-E9E9CD2CA5E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B8D0408F-3760-4916-A2C7-1DE9C75A0719}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{946CB97E-2ECB-4F93-BB1D-2EB4A514445A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09A5C434-628D-4EAA-BE91-4D6BF473EF6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03C6C411-5F4A-47BA-A50C-EB6960391B8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D28E4AF-5866-402C-9D8B-38424C88E13C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F96AD33-427F-4DDD-85ED-C2B360DDDEF5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3A9A5CC-3173-4998-91A0-8C981180BAB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00CA5C9E-959C-4E79-B470-1CBA88CD57AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B35F85F-4870-4C21-9D4A-23693AB52C0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A445A6C4-40D0-45F2-9604-A3F5FC5238C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD2E898F-FE47-41C9-B46D-A05019F2DAC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E21D2FFF-7906-41CF-9591-E9B807B2BE4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55D77DF5-6EDD-4AD3-8345-7055CFCC83A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10ABBEBB-27FA-4BF2-9555-3366E0DD9BF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14618,7 +14618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EB09A7-5B90-4EB8-BF47-F10A22BF4798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C5A1E4-D9BB-4FC7-8707-B0BB3C75BA97}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15922,17 +15922,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9CBF805-1EB5-4332-87E1-0C773B6F5969}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B84207E-11F7-4DBF-8EE8-B4014AE06980}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3491B6ED-E160-46F5-B8CD-90D46A761C81}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A6671C1-D702-422A-9C4B-90B270DC76A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56670A08-F6C4-4966-944A-078714FE6DFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A79C176E-0601-4E0A-90B4-0E1A9E6FE4D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38E347C4-F5F5-401E-BF89-C6C66ED48EB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82545FB9-4D31-4304-B418-1BB53DA49D05}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4ED7E7C3-DAE0-4EC2-9010-5E30E2E4D311}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D03FCC60-A629-4F45-A667-01AF01E42A8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB68ECC7-0F80-4686-89D1-476FB67690B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BB01DD3-BC02-4C4B-9735-C64A9082B6AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{200ABD5D-B687-4239-8775-A63711C5C772}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD9DCAC5-DC76-4769-A53F-ECA3F984D9A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0586085-51DE-4E80-AB27-6930CAFEF8C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67D2A47A-2AA1-4B6D-86E3-FA3751D34B99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A83F9539-EB07-45E2-93DA-FF76BCD716EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78E8C9B4-C663-43DF-87FD-FCBA4432DE56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B22A03EF-8598-4577-B89C-BD4A5C2D91D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{870E5495-73B3-42DE-B778-645ECB63339A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EF047C6-A3C4-4EBA-A309-222FEAF9CDB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20AAE396-92AF-4050-A727-C8F2F087F83A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15945,7 +15945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2CAB6-EEE6-4ACA-AD3E-2A5EE06339D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B71F594-7DC2-4517-8ADA-54548A5444F2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17249,17 +17249,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7348E4C3-4FE6-4242-998B-3DCDE3338E96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C0EA696-E0E5-442A-9EEE-42EEC09E64D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE6A4AAA-855D-49D4-83C3-276FFD13ED59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3F729D5-28D3-4376-921D-7353F10F622E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E87D3ADE-E0DC-4CAC-8B8B-AA15F43ABC2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E6A7E8A-E2B3-49DB-8DC6-1979EDCF6BD1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D306F97-88CC-4B9D-AB4A-49A5D5DA567F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B58F9179-8EF9-473C-B00A-39746A38A656}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9BEE38A4-3E89-45B4-99C8-C8E01FF14830}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF75EA7E-7DD9-42F8-89BF-DAA38EB60AD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8E2FE97-DC98-4A27-A199-37B0F5EF29AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A384F55-15D1-4E10-876E-C48911A6EAAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73B08E14-F06B-4676-BD45-07C7CDE02E95}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F161CCD-8FBC-4DEA-924C-4A9BAD3D6D8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAB69463-2BA1-417A-BA75-E7F92C1282C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38388078-C3DF-42BE-A0A7-F787695B8924}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AE7893A-EE83-40F9-B8F9-2001AB8879D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{555B47FE-8C7A-4685-A58B-3BD8C424A68D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7265052-4E6A-486C-87B6-9E57366026A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{49EA1710-5795-4C09-BB06-52EED429995F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BEC3565C-C60B-49B1-B245-B46DBC6AE757}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21510AFA-F37C-4A7A-A9BA-F0A4B49A9C61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
